--- a/Datasets/Analisis_de_Facturas_de_Compra.xlsx
+++ b/Datasets/Analisis_de_Facturas_de_Compra.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristiandarioortegayubro/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B39CFD5-0925-F346-AB8C-0F3E0FAC4B20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="138">
   <si>
     <t>DOCUMENTO</t>
   </si>
@@ -430,25 +439,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d-m-yy"/>
-    <numFmt numFmtId="60" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d\-m\-yy"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -589,51 +592,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -644,26 +644,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -862,7 +921,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -881,7 +940,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,7 +970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -937,7 +996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -963,7 +1022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -989,7 +1048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1015,7 +1074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,7 +1100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,7 +1126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1093,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1119,7 +1178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1132,9 +1191,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1151,7 +1216,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1170,7 +1235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,7 +1261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1469,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,9 +1482,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1433,7 +1504,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1452,7 +1523,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,7 +1553,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1508,7 +1579,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1534,7 +1605,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1560,7 +1631,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1586,7 +1657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1612,7 +1683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1638,7 +1709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1664,7 +1735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1690,7 +1761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1703,97 +1774,107 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.3516" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5">
         <v>43938</v>
       </c>
-      <c r="D2" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s" s="6">
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="7">
@@ -1808,30 +1889,30 @@
       <c r="J2" s="7">
         <v>10000</v>
       </c>
-      <c r="K2" t="s" s="6">
+      <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="5">
         <v>43938</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="8">
+    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="10">
         <v>43936</v>
       </c>
-      <c r="D3" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="11">
+      <c r="D3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s" s="11">
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="12">
@@ -1846,30 +1927,30 @@
       <c r="J3" s="12">
         <v>5000</v>
       </c>
-      <c r="K3" t="s" s="11">
+      <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="10">
         <v>43936</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
+    <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="10">
         <v>43911</v>
       </c>
-      <c r="D4" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="11">
+      <c r="D4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s" s="11">
+      <c r="F4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="12">
@@ -1884,30 +1965,30 @@
       <c r="J4" s="12">
         <v>23200</v>
       </c>
-      <c r="K4" t="s" s="11">
+      <c r="K4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="10">
         <v>43911</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="8">
+    <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="10">
         <v>43911</v>
       </c>
-      <c r="D5" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="11">
+      <c r="D5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s" s="11">
+      <c r="F5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="12">
@@ -1922,30 +2003,30 @@
       <c r="J5" s="12">
         <v>10035</v>
       </c>
-      <c r="K5" t="s" s="11">
+      <c r="K5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="10">
         <v>43911</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="8">
+    <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="10">
         <v>43911</v>
       </c>
-      <c r="D6" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="11">
+      <c r="D6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s" s="11">
+      <c r="F6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="12">
@@ -1960,30 +2041,30 @@
       <c r="J6" s="12">
         <v>9850</v>
       </c>
-      <c r="K6" t="s" s="11">
+      <c r="K6" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="10">
         <v>43911</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="8">
+    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="10">
         <v>43902</v>
       </c>
-      <c r="D7" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="11">
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="F7" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="12">
@@ -1998,30 +2079,30 @@
       <c r="J7" s="12">
         <v>72000</v>
       </c>
-      <c r="K7" t="s" s="11">
+      <c r="K7" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L7" s="10">
         <v>43902</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="8">
+    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s" s="9">
+      <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="10">
         <v>43900</v>
       </c>
-      <c r="D8" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="11">
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s" s="11">
+      <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="12">
@@ -2036,30 +2117,30 @@
       <c r="J8" s="12">
         <v>271760</v>
       </c>
-      <c r="K8" t="s" s="11">
+      <c r="K8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="10">
         <v>43900</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="8">
+    <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="9">
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="10">
         <v>43888</v>
       </c>
-      <c r="D9" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="11">
+      <c r="D9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s" s="11">
+      <c r="F9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="12">
@@ -2074,30 +2155,30 @@
       <c r="J9" s="12">
         <v>89350</v>
       </c>
-      <c r="K9" t="s" s="11">
+      <c r="K9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="10">
         <v>43888</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="8">
+    <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s" s="9">
+      <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="10">
         <v>43887</v>
       </c>
-      <c r="D10" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="11">
+      <c r="D10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s" s="11">
+      <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="12">
@@ -2112,30 +2193,30 @@
       <c r="J10" s="12">
         <v>97500</v>
       </c>
-      <c r="K10" t="s" s="11">
+      <c r="K10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="10">
         <v>43887</v>
       </c>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="8">
+    <row r="11" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s" s="9">
+      <c r="B11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="10">
         <v>43883</v>
       </c>
-      <c r="D11" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="11">
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s" s="11">
+      <c r="F11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="12">
@@ -2150,30 +2231,30 @@
       <c r="J11" s="12">
         <v>103500</v>
       </c>
-      <c r="K11" t="s" s="11">
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="10">
         <v>43883</v>
       </c>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="8">
+    <row r="12" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s" s="9">
+      <c r="B12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="10">
         <v>43876</v>
       </c>
-      <c r="D12" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="11">
+      <c r="D12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F12" t="s" s="11">
+      <c r="F12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="12">
@@ -2188,30 +2269,30 @@
       <c r="J12" s="12">
         <v>50357.5</v>
       </c>
-      <c r="K12" t="s" s="11">
+      <c r="K12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="10">
         <v>43876</v>
       </c>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="8">
+    <row r="13" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s" s="9">
+      <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="10">
         <v>43869</v>
       </c>
-      <c r="D13" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="11">
+      <c r="D13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="s" s="11">
+      <c r="F13" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="12">
@@ -2226,30 +2307,30 @@
       <c r="J13" s="12">
         <v>73200</v>
       </c>
-      <c r="K13" t="s" s="11">
+      <c r="K13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="10">
         <v>43869</v>
       </c>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="8">
+    <row r="14" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s" s="9">
+      <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="10">
         <v>43863</v>
       </c>
-      <c r="D14" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s" s="11">
+      <c r="D14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s" s="11">
+      <c r="F14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="12">
@@ -2264,30 +2345,30 @@
       <c r="J14" s="12">
         <v>55325</v>
       </c>
-      <c r="K14" t="s" s="11">
+      <c r="K14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="10">
         <v>43863</v>
       </c>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="8">
+    <row r="15" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s" s="9">
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="10">
         <v>43863</v>
       </c>
-      <c r="D15" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="11">
+      <c r="D15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F15" t="s" s="11">
+      <c r="F15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="12">
@@ -2302,30 +2383,30 @@
       <c r="J15" s="12">
         <v>33250</v>
       </c>
-      <c r="K15" t="s" s="11">
+      <c r="K15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="10">
         <v>43863</v>
       </c>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="8">
+    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s" s="9">
+      <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="10">
         <v>43845</v>
       </c>
-      <c r="D16" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="11">
+      <c r="D16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F16" t="s" s="11">
+      <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="12">
@@ -2340,30 +2421,30 @@
       <c r="J16" s="12">
         <v>354600</v>
       </c>
-      <c r="K16" t="s" s="11">
+      <c r="K16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="10">
         <v>43845</v>
       </c>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="8">
+    <row r="17" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s" s="9">
+      <c r="B17" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="10">
         <v>43837</v>
       </c>
-      <c r="D17" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s" s="11">
+      <c r="D17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F17" t="s" s="11">
+      <c r="F17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="12">
@@ -2378,30 +2459,30 @@
       <c r="J17" s="12">
         <v>42372</v>
       </c>
-      <c r="K17" t="s" s="11">
+      <c r="K17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="10">
         <v>43837</v>
       </c>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="8">
+    <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s" s="9">
+      <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10">
         <v>43833</v>
       </c>
-      <c r="D18" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s" s="11">
+      <c r="D18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F18" t="s" s="11">
+      <c r="F18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="12">
@@ -2416,30 +2497,30 @@
       <c r="J18" s="12">
         <v>32550</v>
       </c>
-      <c r="K18" t="s" s="11">
+      <c r="K18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="10">
         <v>43833</v>
       </c>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="8">
+    <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="s" s="9">
+      <c r="B19" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="10">
         <v>43833</v>
       </c>
-      <c r="D19" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s" s="11">
+      <c r="D19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F19" t="s" s="11">
+      <c r="F19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="12">
@@ -2454,68 +2535,68 @@
       <c r="J19" s="12">
         <v>28703.88</v>
       </c>
-      <c r="K19" t="s" s="11">
+      <c r="K19" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="10">
         <v>43833</v>
       </c>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="8">
+    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B20" t="s" s="9">
+      <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="10">
         <v>43833</v>
       </c>
-      <c r="D20" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s" s="11">
+      <c r="D20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F20" t="s" s="11">
+      <c r="F20" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="12">
         <v>1</v>
       </c>
       <c r="H20" s="12">
-        <v>10031.8</v>
+        <v>10031.799999999999</v>
       </c>
       <c r="I20" s="12">
-        <v>10031.8</v>
+        <v>10031.799999999999</v>
       </c>
       <c r="J20" s="12">
-        <v>10031.8</v>
-      </c>
-      <c r="K20" t="s" s="11">
+        <v>10031.799999999999</v>
+      </c>
+      <c r="K20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="10">
         <v>43833</v>
       </c>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="8">
+    <row r="21" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s" s="9">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="10">
         <v>43824</v>
       </c>
-      <c r="D21" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s" s="11">
+      <c r="D21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F21" t="s" s="11">
+      <c r="F21" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="12">
@@ -2530,30 +2611,30 @@
       <c r="J21" s="12">
         <v>70320</v>
       </c>
-      <c r="K21" t="s" s="11">
+      <c r="K21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="10">
         <v>43824</v>
       </c>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="8">
+    <row r="22" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s" s="9">
+      <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="10">
         <v>43824</v>
       </c>
-      <c r="D22" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s" s="11">
+      <c r="D22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F22" t="s" s="11">
+      <c r="F22" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="12">
@@ -2568,30 +2649,30 @@
       <c r="J22" s="12">
         <v>13100</v>
       </c>
-      <c r="K22" t="s" s="11">
+      <c r="K22" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L22" s="10">
         <v>43824</v>
       </c>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="8">
+    <row r="23" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B23" t="s" s="9">
+      <c r="B23" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="10">
         <v>43819</v>
       </c>
-      <c r="D23" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s" s="11">
+      <c r="D23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F23" t="s" s="11">
+      <c r="F23" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="12">
@@ -2606,30 +2687,30 @@
       <c r="J23" s="12">
         <v>52535</v>
       </c>
-      <c r="K23" t="s" s="11">
+      <c r="K23" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="10">
         <v>43819</v>
       </c>
     </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="8">
+    <row r="24" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B24" t="s" s="9">
+      <c r="B24" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="10">
         <v>43811</v>
       </c>
-      <c r="D24" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s" s="11">
+      <c r="D24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F24" t="s" s="11">
+      <c r="F24" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="12">
@@ -2644,30 +2725,30 @@
       <c r="J24" s="12">
         <v>221980</v>
       </c>
-      <c r="K24" t="s" s="11">
+      <c r="K24" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L24" s="10">
         <v>43811</v>
       </c>
     </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="8">
+    <row r="25" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B25" t="s" s="9">
+      <c r="B25" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="10">
         <v>43809</v>
       </c>
-      <c r="D25" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s" s="11">
+      <c r="D25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F25" t="s" s="11">
+      <c r="F25" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="12">
@@ -2682,30 +2763,30 @@
       <c r="J25" s="12">
         <v>30558</v>
       </c>
-      <c r="K25" t="s" s="11">
+      <c r="K25" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L25" s="10">
         <v>43809</v>
       </c>
     </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="8">
+    <row r="26" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B26" t="s" s="9">
+      <c r="B26" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="10">
         <v>43809</v>
       </c>
-      <c r="D26" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s" s="11">
+      <c r="D26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F26" t="s" s="11">
+      <c r="F26" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="12">
@@ -2720,30 +2801,30 @@
       <c r="J26" s="12">
         <v>27668</v>
       </c>
-      <c r="K26" t="s" s="11">
+      <c r="K26" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="10">
         <v>43809</v>
       </c>
     </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="8">
+    <row r="27" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s" s="9">
+      <c r="B27" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="10">
         <v>43809</v>
       </c>
-      <c r="D27" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s" s="11">
+      <c r="D27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F27" t="s" s="11">
+      <c r="F27" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="12">
@@ -2758,30 +2839,30 @@
       <c r="J27" s="12">
         <v>13588</v>
       </c>
-      <c r="K27" t="s" s="11">
+      <c r="K27" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L27" s="10">
         <v>43809</v>
       </c>
     </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="8">
+    <row r="28" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B28" t="s" s="9">
+      <c r="B28" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="10">
         <v>43796</v>
       </c>
-      <c r="D28" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s" s="11">
+      <c r="D28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F28" t="s" s="11">
+      <c r="F28" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G28" s="12">
@@ -2796,30 +2877,30 @@
       <c r="J28" s="12">
         <v>104300</v>
       </c>
-      <c r="K28" t="s" s="11">
+      <c r="K28" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L28" s="10">
         <v>43796</v>
       </c>
     </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="8">
+    <row r="29" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B29" t="s" s="9">
+      <c r="B29" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="10">
         <v>43791</v>
       </c>
-      <c r="D29" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s" s="11">
+      <c r="D29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F29" t="s" s="11">
+      <c r="F29" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="12">
@@ -2834,30 +2915,30 @@
       <c r="J29" s="12">
         <v>110550</v>
       </c>
-      <c r="K29" t="s" s="11">
+      <c r="K29" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="10">
         <v>43791</v>
       </c>
     </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="8">
+    <row r="30" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="s" s="9">
+      <c r="B30" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="10">
         <v>43780</v>
       </c>
-      <c r="D30" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s" s="11">
+      <c r="D30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F30" t="s" s="11">
+      <c r="F30" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="12">
@@ -2872,30 +2953,30 @@
       <c r="J30" s="12">
         <v>78900</v>
       </c>
-      <c r="K30" t="s" s="11">
+      <c r="K30" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L30" s="10">
         <v>43780</v>
       </c>
     </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="8">
+    <row r="31" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B31" t="s" s="9">
+      <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="10">
         <v>43780</v>
       </c>
-      <c r="D31" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s" s="11">
+      <c r="D31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F31" t="s" s="11">
+      <c r="F31" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G31" s="12">
@@ -2910,30 +2991,30 @@
       <c r="J31" s="12">
         <v>37222</v>
       </c>
-      <c r="K31" t="s" s="11">
+      <c r="K31" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L31" s="10">
         <v>43780</v>
       </c>
     </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="8">
+    <row r="32" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B32" t="s" s="9">
+      <c r="B32" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="10">
         <v>43771</v>
       </c>
-      <c r="D32" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s" s="11">
+      <c r="D32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F32" t="s" s="11">
+      <c r="F32" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G32" s="12">
@@ -2948,30 +3029,30 @@
       <c r="J32" s="12">
         <v>56250</v>
       </c>
-      <c r="K32" t="s" s="11">
+      <c r="K32" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L32" s="10">
         <v>43771</v>
       </c>
     </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="8">
+    <row r="33" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s" s="9">
+      <c r="B33" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="10">
         <v>43771</v>
       </c>
-      <c r="D33" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s" s="11">
+      <c r="D33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F33" t="s" s="11">
+      <c r="F33" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="12">
@@ -2986,30 +3067,30 @@
       <c r="J33" s="12">
         <v>8700</v>
       </c>
-      <c r="K33" t="s" s="11">
+      <c r="K33" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L33" s="10">
         <v>43771</v>
       </c>
     </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="8">
+    <row r="34" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B34" t="s" s="9">
+      <c r="B34" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="10">
         <v>43765</v>
       </c>
-      <c r="D34" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s" s="11">
+      <c r="D34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F34" t="s" s="11">
+      <c r="F34" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="12">
@@ -3024,30 +3105,30 @@
       <c r="J34" s="12">
         <v>35852</v>
       </c>
-      <c r="K34" t="s" s="11">
+      <c r="K34" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L34" s="10">
         <v>43765</v>
       </c>
     </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="8">
+    <row r="35" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s" s="9">
+      <c r="B35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="10">
         <v>43765</v>
       </c>
-      <c r="D35" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s" s="11">
+      <c r="D35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F35" t="s" s="11">
+      <c r="F35" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="12">
@@ -3062,30 +3143,30 @@
       <c r="J35" s="12">
         <v>7200</v>
       </c>
-      <c r="K35" t="s" s="11">
+      <c r="K35" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L35" s="10">
         <v>43765</v>
       </c>
     </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="8">
+    <row r="36" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s" s="9">
+      <c r="B36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="10">
         <v>43749</v>
       </c>
-      <c r="D36" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s" s="11">
+      <c r="D36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F36" t="s" s="11">
+      <c r="F36" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="12">
@@ -3100,30 +3181,30 @@
       <c r="J36" s="12">
         <v>72100</v>
       </c>
-      <c r="K36" t="s" s="11">
+      <c r="K36" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L36" s="10">
         <v>43749</v>
       </c>
     </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="8">
+    <row r="37" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s" s="9">
+      <c r="B37" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="10">
         <v>43747</v>
       </c>
-      <c r="D37" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s" s="11">
+      <c r="D37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F37" t="s" s="11">
+      <c r="F37" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="12">
@@ -3138,30 +3219,30 @@
       <c r="J37" s="12">
         <v>90000</v>
       </c>
-      <c r="K37" t="s" s="11">
+      <c r="K37" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L37" s="10">
         <v>43747</v>
       </c>
     </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="8">
+    <row r="38" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s" s="9">
+      <c r="B38" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="10">
         <v>43741</v>
       </c>
-      <c r="D38" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s" s="11">
+      <c r="D38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F38" t="s" s="11">
+      <c r="F38" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="12">
@@ -3176,30 +3257,30 @@
       <c r="J38" s="12">
         <v>158320</v>
       </c>
-      <c r="K38" t="s" s="11">
+      <c r="K38" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L38" s="10">
         <v>43741</v>
       </c>
     </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="8">
+    <row r="39" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s" s="9">
+      <c r="B39" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="10">
         <v>43738</v>
       </c>
-      <c r="D39" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s" s="11">
+      <c r="D39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F39" t="s" s="11">
+      <c r="F39" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="12">
@@ -3214,30 +3295,32 @@
       <c r="J39" s="12">
         <v>11100</v>
       </c>
-      <c r="K39" t="s" s="11">
+      <c r="K39" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L39" s="10">
         <v>43738</v>
       </c>
     </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="8">
+    <row r="40" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B40" t="s" s="9">
+      <c r="B40" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C40" s="10">
         <v>43732</v>
       </c>
-      <c r="D40" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s" s="11">
+      <c r="D40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G40" s="12">
         <v>1</v>
       </c>
@@ -3250,30 +3333,32 @@
       <c r="J40" s="12">
         <v>47000</v>
       </c>
-      <c r="K40" t="s" s="11">
+      <c r="K40" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L40" s="10">
         <v>43732</v>
       </c>
     </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="8">
+    <row r="41" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="s" s="9">
+      <c r="B41" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="10">
         <v>43725</v>
       </c>
-      <c r="D41" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s" s="11">
+      <c r="D41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G41" s="12">
         <v>10</v>
       </c>
@@ -3286,30 +3371,32 @@
       <c r="J41" s="12">
         <v>102007.5</v>
       </c>
-      <c r="K41" t="s" s="11">
+      <c r="K41" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L41" s="10">
         <v>43725</v>
       </c>
     </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="8">
+    <row r="42" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B42" t="s" s="9">
+      <c r="B42" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="10">
         <v>43710</v>
       </c>
-      <c r="D42" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s" s="11">
+      <c r="D42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="13"/>
+      <c r="F42" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G42" s="12">
         <v>45</v>
       </c>
@@ -3322,30 +3409,32 @@
       <c r="J42" s="12">
         <v>98505</v>
       </c>
-      <c r="K42" t="s" s="11">
+      <c r="K42" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L42" s="10">
         <v>43710</v>
       </c>
     </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="8">
+    <row r="43" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B43" t="s" s="9">
+      <c r="B43" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="10">
         <v>43707</v>
       </c>
-      <c r="D43" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s" s="11">
+      <c r="D43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="13"/>
+      <c r="F43" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G43" s="12">
         <v>1</v>
       </c>
@@ -3358,30 +3447,32 @@
       <c r="J43" s="12">
         <v>10500</v>
       </c>
-      <c r="K43" t="s" s="11">
+      <c r="K43" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L43" s="10">
         <v>43707</v>
       </c>
     </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="8">
+    <row r="44" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B44" t="s" s="9">
+      <c r="B44" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C44" s="10">
         <v>43703</v>
       </c>
-      <c r="D44" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s" s="11">
+      <c r="D44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G44" s="12">
         <v>1</v>
       </c>
@@ -3394,30 +3485,32 @@
       <c r="J44" s="12">
         <v>30759</v>
       </c>
-      <c r="K44" t="s" s="11">
+      <c r="K44" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L44" s="10">
         <v>43703</v>
       </c>
     </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="8">
+    <row r="45" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B45" t="s" s="9">
+      <c r="B45" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C45" s="10">
         <v>43702</v>
       </c>
-      <c r="D45" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s" s="11">
+      <c r="D45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="13"/>
+      <c r="F45" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G45" s="12">
         <v>15</v>
       </c>
@@ -3430,30 +3523,32 @@
       <c r="J45" s="12">
         <v>10875</v>
       </c>
-      <c r="K45" t="s" s="11">
+      <c r="K45" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L45" s="10">
         <v>43702</v>
       </c>
     </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="8">
+    <row r="46" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B46" t="s" s="9">
+      <c r="B46" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C46" s="10">
         <v>43689</v>
       </c>
-      <c r="D46" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s" s="11">
+      <c r="D46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="G46" s="12">
         <v>6</v>
       </c>
@@ -3466,30 +3561,32 @@
       <c r="J46" s="12">
         <v>23748</v>
       </c>
-      <c r="K46" t="s" s="11">
+      <c r="K46" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L46" s="10">
         <v>43689</v>
       </c>
     </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="8">
+    <row r="47" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B47" t="s" s="9">
+      <c r="B47" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C47" s="10">
         <v>43682</v>
       </c>
-      <c r="D47" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s" s="11">
+      <c r="D47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G47" s="12">
         <v>10</v>
       </c>
@@ -3502,30 +3599,32 @@
       <c r="J47" s="12">
         <v>169800</v>
       </c>
-      <c r="K47" t="s" s="11">
+      <c r="K47" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L47" s="10">
         <v>43682</v>
       </c>
     </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="8">
+    <row r="48" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B48" t="s" s="9">
+      <c r="B48" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="10">
         <v>43672</v>
       </c>
-      <c r="D48" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s" s="11">
+      <c r="D48" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="13"/>
+      <c r="F48" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G48" s="12">
         <v>10</v>
       </c>
@@ -3538,30 +3637,32 @@
       <c r="J48" s="12">
         <v>89006</v>
       </c>
-      <c r="K48" t="s" s="11">
+      <c r="K48" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L48" s="10">
         <v>43672</v>
       </c>
     </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="8">
+    <row r="49" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B49" t="s" s="9">
+      <c r="B49" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="10">
         <v>43664</v>
       </c>
-      <c r="D49" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s" s="11">
+      <c r="D49" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="G49" s="12">
         <v>22</v>
       </c>
@@ -3574,30 +3675,32 @@
       <c r="J49" s="12">
         <v>82515.179999999993</v>
       </c>
-      <c r="K49" t="s" s="11">
+      <c r="K49" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L49" s="10">
         <v>43664</v>
       </c>
     </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="8">
+    <row r="50" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B50" t="s" s="9">
+      <c r="B50" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C50" s="10">
         <v>43658</v>
       </c>
-      <c r="D50" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s" s="11">
+      <c r="D50" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="13"/>
+      <c r="F50" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G50" s="12">
         <v>37</v>
       </c>
@@ -3610,30 +3713,32 @@
       <c r="J50" s="12">
         <v>110630</v>
       </c>
-      <c r="K50" t="s" s="11">
+      <c r="K50" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L50" s="10">
         <v>43658</v>
       </c>
     </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="8">
+    <row r="51" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B51" t="s" s="9">
+      <c r="B51" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C51" s="10">
         <v>43649</v>
       </c>
-      <c r="D51" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s" s="11">
+      <c r="D51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="G51" s="12">
         <v>20</v>
       </c>
@@ -3646,30 +3751,32 @@
       <c r="J51" s="12">
         <v>46000</v>
       </c>
-      <c r="K51" t="s" s="11">
+      <c r="K51" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L51" s="10">
         <v>43649</v>
       </c>
     </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="8">
+    <row r="52" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B52" t="s" s="9">
+      <c r="B52" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="10">
         <v>43638</v>
       </c>
-      <c r="D52" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s" s="11">
+      <c r="D52" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F52" s="13"/>
+      <c r="F52" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G52" s="12">
         <v>13</v>
       </c>
@@ -3682,30 +3789,32 @@
       <c r="J52" s="12">
         <v>124800</v>
       </c>
-      <c r="K52" t="s" s="11">
+      <c r="K52" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L52" s="10">
         <v>43638</v>
       </c>
     </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="8">
+    <row r="53" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B53" t="s" s="9">
+      <c r="B53" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="10">
         <v>43631</v>
       </c>
-      <c r="D53" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s" s="11">
+      <c r="D53" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F53" s="13"/>
+      <c r="F53" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G53" s="12">
         <v>1</v>
       </c>
@@ -3718,30 +3827,32 @@
       <c r="J53" s="12">
         <v>27000</v>
       </c>
-      <c r="K53" t="s" s="11">
+      <c r="K53" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L53" s="10">
         <v>43631</v>
       </c>
     </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="8">
+    <row r="54" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B54" t="s" s="9">
+      <c r="B54" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="10">
         <v>43631</v>
       </c>
-      <c r="D54" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s" s="11">
+      <c r="D54" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F54" s="13"/>
+      <c r="F54" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G54" s="12">
         <v>10</v>
       </c>
@@ -3754,30 +3865,32 @@
       <c r="J54" s="12">
         <v>17050</v>
       </c>
-      <c r="K54" t="s" s="11">
+      <c r="K54" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L54" s="10">
         <v>43631</v>
       </c>
     </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="8">
+    <row r="55" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B55" t="s" s="9">
+      <c r="B55" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C55" s="10">
         <v>43627</v>
       </c>
-      <c r="D55" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E55" t="s" s="11">
+      <c r="D55" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G55" s="12">
         <v>10</v>
       </c>
@@ -3790,30 +3903,32 @@
       <c r="J55" s="12">
         <v>6100</v>
       </c>
-      <c r="K55" t="s" s="11">
+      <c r="K55" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L55" s="10">
         <v>43627</v>
       </c>
     </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="8">
+    <row r="56" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B56" t="s" s="9">
+      <c r="B56" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="10">
         <v>43627</v>
       </c>
-      <c r="D56" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E56" t="s" s="11">
+      <c r="D56" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F56" s="13"/>
+      <c r="F56" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G56" s="12">
         <v>6</v>
       </c>
@@ -3826,30 +3941,32 @@
       <c r="J56" s="12">
         <v>4200</v>
       </c>
-      <c r="K56" t="s" s="11">
+      <c r="K56" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L56" s="10">
         <v>43627</v>
       </c>
     </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="8">
+    <row r="57" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B57" t="s" s="9">
+      <c r="B57" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C57" s="10">
         <v>43618</v>
       </c>
-      <c r="D57" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s" s="11">
+      <c r="D57" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="13"/>
+      <c r="F57" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="G57" s="12">
         <v>12</v>
       </c>
@@ -3862,30 +3979,32 @@
       <c r="J57" s="12">
         <v>69420</v>
       </c>
-      <c r="K57" t="s" s="11">
+      <c r="K57" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L57" s="10">
         <v>43618</v>
       </c>
     </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="8">
+    <row r="58" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B58" t="s" s="9">
+      <c r="B58" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C58" s="10">
         <v>43602</v>
       </c>
-      <c r="D58" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s" s="11">
+      <c r="D58" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="13"/>
+      <c r="F58" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="G58" s="12">
         <v>25</v>
       </c>
@@ -3898,30 +4017,32 @@
       <c r="J58" s="12">
         <v>59975</v>
       </c>
-      <c r="K58" t="s" s="11">
+      <c r="K58" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L58" s="10">
         <v>43602</v>
       </c>
     </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="8">
+    <row r="59" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B59" t="s" s="9">
+      <c r="B59" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C59" s="10">
         <v>43598</v>
       </c>
-      <c r="D59" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s" s="11">
+      <c r="D59" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F59" s="13"/>
+      <c r="F59" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G59" s="12">
         <v>15</v>
       </c>
@@ -3934,30 +4055,32 @@
       <c r="J59" s="12">
         <v>187500</v>
       </c>
-      <c r="K59" t="s" s="11">
+      <c r="K59" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L59" s="10">
         <v>43598</v>
       </c>
     </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="8">
+    <row r="60" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B60" t="s" s="9">
+      <c r="B60" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C60" s="10">
         <v>43594</v>
       </c>
-      <c r="D60" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E60" t="s" s="11">
+      <c r="D60" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="13"/>
+      <c r="F60" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G60" s="12">
         <v>1</v>
       </c>
@@ -3970,30 +4093,32 @@
       <c r="J60" s="12">
         <v>12955</v>
       </c>
-      <c r="K60" t="s" s="11">
+      <c r="K60" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L60" s="10">
         <v>43594</v>
       </c>
     </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="8">
+    <row r="61" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B61" t="s" s="9">
+      <c r="B61" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="10">
         <v>43593</v>
       </c>
-      <c r="D61" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s" s="11">
+      <c r="D61" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="13"/>
+      <c r="F61" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G61" s="12">
         <v>25</v>
       </c>
@@ -4006,30 +4131,32 @@
       <c r="J61" s="12">
         <v>15500</v>
       </c>
-      <c r="K61" t="s" s="11">
+      <c r="K61" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L61" s="10">
         <v>43593</v>
       </c>
     </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="8">
+    <row r="62" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B62" t="s" s="9">
+      <c r="B62" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C62" s="10">
         <v>43582</v>
       </c>
-      <c r="D62" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s" s="11">
+      <c r="D62" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F62" s="13"/>
+      <c r="F62" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G62" s="12">
         <v>20</v>
       </c>
@@ -4042,30 +4169,32 @@
       <c r="J62" s="12">
         <v>20100</v>
       </c>
-      <c r="K62" t="s" s="11">
+      <c r="K62" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L62" s="10">
         <v>43582</v>
       </c>
     </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="8">
+    <row r="63" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B63" t="s" s="9">
+      <c r="B63" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C63" s="10">
         <v>43577</v>
       </c>
-      <c r="D63" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s" s="11">
+      <c r="D63" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="13"/>
+      <c r="F63" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G63" s="12">
         <v>1</v>
       </c>
@@ -4078,30 +4207,32 @@
       <c r="J63" s="12">
         <v>5500</v>
       </c>
-      <c r="K63" t="s" s="11">
+      <c r="K63" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L63" s="10">
         <v>43577</v>
       </c>
     </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="8">
+    <row r="64" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B64" t="s" s="9">
+      <c r="B64" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="10">
         <v>43572</v>
       </c>
-      <c r="D64" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s" s="11">
+      <c r="D64" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F64" s="13"/>
+      <c r="F64" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G64" s="12">
         <v>15</v>
       </c>
@@ -4114,30 +4245,32 @@
       <c r="J64" s="12">
         <v>18525</v>
       </c>
-      <c r="K64" t="s" s="11">
+      <c r="K64" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L64" s="10">
         <v>43572</v>
       </c>
     </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="8">
+    <row r="65" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B65" t="s" s="9">
+      <c r="B65" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C65" s="10">
         <v>43566</v>
       </c>
-      <c r="D65" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s" s="11">
+      <c r="D65" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F65" s="13"/>
+      <c r="F65" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G65" s="12">
         <v>120</v>
       </c>
@@ -4150,30 +4283,32 @@
       <c r="J65" s="12">
         <v>71400</v>
       </c>
-      <c r="K65" t="s" s="11">
+      <c r="K65" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L65" s="10">
         <v>43566</v>
       </c>
     </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" t="s" s="8">
+    <row r="66" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B66" t="s" s="9">
+      <c r="B66" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C66" s="10">
         <v>43560</v>
       </c>
-      <c r="D66" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E66" t="s" s="11">
+      <c r="D66" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F66" s="13"/>
+      <c r="F66" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G66" s="12">
         <v>1</v>
       </c>
@@ -4186,30 +4321,32 @@
       <c r="J66" s="12">
         <v>27000</v>
       </c>
-      <c r="K66" t="s" s="11">
+      <c r="K66" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L66" s="10">
         <v>43560</v>
       </c>
     </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="8">
+    <row r="67" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B67" t="s" s="9">
+      <c r="B67" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C67" s="10">
         <v>43557</v>
       </c>
-      <c r="D67" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s" s="11">
+      <c r="D67" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F67" s="13"/>
+      <c r="F67" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G67" s="12">
         <v>15</v>
       </c>
@@ -4222,30 +4359,32 @@
       <c r="J67" s="12">
         <v>14025</v>
       </c>
-      <c r="K67" t="s" s="11">
+      <c r="K67" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L67" s="10">
         <v>43557</v>
       </c>
     </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" t="s" s="8">
+    <row r="68" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B68" t="s" s="9">
+      <c r="B68" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C68" s="10">
         <v>43543</v>
       </c>
-      <c r="D68" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E68" t="s" s="11">
+      <c r="D68" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F68" s="13"/>
+      <c r="F68" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G68" s="12">
         <v>1</v>
       </c>
@@ -4258,30 +4397,32 @@
       <c r="J68" s="12">
         <v>6980</v>
       </c>
-      <c r="K68" t="s" s="11">
+      <c r="K68" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L68" s="10">
         <v>43543</v>
       </c>
     </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" t="s" s="8">
+    <row r="69" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B69" t="s" s="9">
+      <c r="B69" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C69" s="10">
         <v>43532</v>
       </c>
-      <c r="D69" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E69" t="s" s="11">
+      <c r="D69" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F69" s="13"/>
+      <c r="F69" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="G69" s="12">
         <v>20</v>
       </c>
@@ -4294,30 +4435,32 @@
       <c r="J69" s="12">
         <v>157800</v>
       </c>
-      <c r="K69" t="s" s="11">
+      <c r="K69" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L69" s="10">
         <v>43532</v>
       </c>
     </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="8">
+    <row r="70" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B70" t="s" s="9">
+      <c r="B70" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="10">
         <v>43526</v>
       </c>
-      <c r="D70" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s" s="11">
+      <c r="D70" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F70" s="13"/>
+      <c r="F70" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="G70" s="12">
         <v>10</v>
       </c>
@@ -4330,30 +4473,32 @@
       <c r="J70" s="12">
         <v>56330</v>
       </c>
-      <c r="K70" t="s" s="11">
+      <c r="K70" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L70" s="10">
         <v>43526</v>
       </c>
     </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" t="s" s="8">
+    <row r="71" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B71" t="s" s="9">
+      <c r="B71" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C71" s="10">
         <v>43524</v>
       </c>
-      <c r="D71" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s" s="11">
+      <c r="D71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F71" s="13"/>
+      <c r="F71" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G71" s="12">
         <v>1</v>
       </c>
@@ -4366,30 +4511,32 @@
       <c r="J71" s="12">
         <v>27600</v>
       </c>
-      <c r="K71" t="s" s="11">
+      <c r="K71" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L71" s="10">
         <v>43524</v>
       </c>
     </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" t="s" s="8">
+    <row r="72" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B72" t="s" s="9">
+      <c r="B72" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>43517</v>
       </c>
-      <c r="D72" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E72" t="s" s="11">
+      <c r="D72" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="13"/>
+      <c r="F72" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="G72" s="12">
         <v>10</v>
       </c>
@@ -4402,30 +4549,32 @@
       <c r="J72" s="12">
         <v>31000</v>
       </c>
-      <c r="K72" t="s" s="11">
+      <c r="K72" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L72" s="10">
         <v>43517</v>
       </c>
     </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" t="s" s="8">
+    <row r="73" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B73" t="s" s="9">
+      <c r="B73" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="10">
         <v>43517</v>
       </c>
-      <c r="D73" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E73" t="s" s="11">
+      <c r="D73" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F73" s="13"/>
+      <c r="F73" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="G73" s="12">
         <v>1</v>
       </c>
@@ -4438,30 +4587,32 @@
       <c r="J73" s="12">
         <v>7500</v>
       </c>
-      <c r="K73" t="s" s="11">
+      <c r="K73" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L73" s="10">
         <v>43517</v>
       </c>
     </row>
-    <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" t="s" s="8">
+    <row r="74" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B74" t="s" s="9">
+      <c r="B74" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C74" s="10">
         <v>43506</v>
       </c>
-      <c r="D74" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E74" t="s" s="11">
+      <c r="D74" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F74" s="13"/>
+      <c r="F74" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G74" s="12">
         <v>20</v>
       </c>
@@ -4474,30 +4625,32 @@
       <c r="J74" s="12">
         <v>27000</v>
       </c>
-      <c r="K74" t="s" s="11">
+      <c r="K74" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L74" s="10">
         <v>43506</v>
       </c>
     </row>
-    <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" t="s" s="8">
+    <row r="75" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B75" t="s" s="9">
+      <c r="B75" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C75" s="10">
         <v>43497</v>
       </c>
-      <c r="D75" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s" s="11">
+      <c r="D75" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="13"/>
+      <c r="F75" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G75" s="12">
         <v>18</v>
       </c>
@@ -4510,30 +4663,32 @@
       <c r="J75" s="12">
         <v>21690</v>
       </c>
-      <c r="K75" t="s" s="11">
+      <c r="K75" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L75" s="10">
         <v>43497</v>
       </c>
     </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" t="s" s="8">
+    <row r="76" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B76" t="s" s="9">
+      <c r="B76" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C76" s="10">
         <v>43496</v>
       </c>
-      <c r="D76" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E76" t="s" s="11">
+      <c r="D76" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F76" s="13"/>
+      <c r="F76" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G76" s="12">
         <v>8</v>
       </c>
@@ -4546,30 +4701,32 @@
       <c r="J76" s="12">
         <v>13440</v>
       </c>
-      <c r="K76" t="s" s="11">
+      <c r="K76" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L76" s="10">
         <v>43496</v>
       </c>
     </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" t="s" s="8">
+    <row r="77" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B77" t="s" s="9">
+      <c r="B77" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C77" s="10">
         <v>43487</v>
       </c>
-      <c r="D77" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E77" t="s" s="11">
+      <c r="D77" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F77" s="13"/>
+      <c r="F77" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G77" s="12">
         <v>1</v>
       </c>
@@ -4582,30 +4739,32 @@
       <c r="J77" s="12">
         <v>5600</v>
       </c>
-      <c r="K77" t="s" s="11">
+      <c r="K77" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L77" s="10">
         <v>43487</v>
       </c>
     </row>
-    <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" t="s" s="8">
+    <row r="78" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B78" t="s" s="9">
+      <c r="B78" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C78" s="10">
         <v>43478</v>
       </c>
-      <c r="D78" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E78" t="s" s="11">
+      <c r="D78" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F78" s="13"/>
+      <c r="F78" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G78" s="12">
         <v>10</v>
       </c>
@@ -4618,30 +4777,32 @@
       <c r="J78" s="12">
         <v>45200</v>
       </c>
-      <c r="K78" t="s" s="11">
+      <c r="K78" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L78" s="10">
         <v>43478</v>
       </c>
     </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" t="s" s="8">
+    <row r="79" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B79" t="s" s="9">
+      <c r="B79" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C79" s="10">
         <v>43473</v>
       </c>
-      <c r="D79" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E79" t="s" s="11">
+      <c r="D79" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F79" s="13"/>
+      <c r="F79" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="G79" s="12">
         <v>20</v>
       </c>
@@ -4654,30 +4815,32 @@
       <c r="J79" s="12">
         <v>30000</v>
       </c>
-      <c r="K79" t="s" s="11">
+      <c r="K79" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L79" s="10">
         <v>43473</v>
       </c>
     </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" t="s" s="8">
+    <row r="80" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B80" t="s" s="9">
+      <c r="B80" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="10">
         <v>43468</v>
       </c>
-      <c r="D80" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s" s="11">
+      <c r="D80" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F80" s="13"/>
+      <c r="F80" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G80" s="12">
         <v>1</v>
       </c>
@@ -4690,30 +4853,32 @@
       <c r="J80" s="12">
         <v>35700</v>
       </c>
-      <c r="K80" t="s" s="11">
+      <c r="K80" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L80" s="10">
         <v>43468</v>
       </c>
     </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" t="s" s="8">
+    <row r="81" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B81" t="s" s="9">
+      <c r="B81" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C81" s="10">
         <v>43468</v>
       </c>
-      <c r="D81" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="E81" t="s" s="11">
+      <c r="D81" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F81" s="13"/>
+      <c r="F81" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G81" s="12">
         <v>1</v>
       </c>
@@ -4726,7 +4891,7 @@
       <c r="J81" s="12">
         <v>9679</v>
       </c>
-      <c r="K81" t="s" s="11">
+      <c r="K81" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L81" s="10">
@@ -4735,7 +4900,7 @@
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
